--- a/biology/Zoologie/Conus_metcalfii/Conus_metcalfii.xlsx
+++ b/biology/Zoologie/Conus_metcalfii/Conus_metcalfii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus metcalfii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus metcalfii a été décrite pour la première fois en 1843 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865)[1] dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[2],[3].
-Synonymes
-Conus (Pionoconus) metcalfii Reeve, 1843 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus metcalfii a été décrite pour la première fois en 1843 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_metcalfii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_metcalfii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Pionoconus) metcalfii Reeve, 1843 · appellation alternative
 Conus ambaroides Shikama, 1977 · non accepté
 Conus cernohorskyi da Motta, 1983 · non accepté
 Pionoconus metcalfii (Reeve, 1843) · non accepté</t>
